--- a/xlsx/每日电讯报_intext.xlsx
+++ b/xlsx/每日电讯报_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>每日电讯报</t>
   </si>
@@ -29,7 +29,7 @@
     <t>英国</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_每日电讯报</t>
+    <t>政策_政策_维基百科_每日电讯报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>日報</t>
+    <t>日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%8A%A5</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E6%9C%9F%E5%88%8A%E8%99%9F</t>
   </si>
   <si>
-    <t>國際標準期刊號</t>
+    <t>国际标准期刊号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%A5%E7%BA%B8</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>保守黨 (英國)</t>
+    <t>保守党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E6%8A%A5%E5%88%8A%E5%88%97%E8%A1%A8</t>
@@ -107,61 +107,58 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%A0%B1%E5%88%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>英國報刊列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E5%AF%9F%E5%AE%B6%E5%A0%B1</t>
   </si>
   <si>
-    <t>觀察家報</t>
+    <t>观察家报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>金融時報</t>
+    <t>金融时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9C%9F%E6%97%A5%E6%B3%B0%E6%99%A4%E5%A3%AB%E5%A0%B1</t>
   </si>
   <si>
-    <t>星期日泰晤士報</t>
+    <t>星期日泰晤士报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/I_(%E5%A0%B1%E7%AB%A0)</t>
   </si>
   <si>
-    <t>I (報章)</t>
+    <t>I (报章)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%A0%B1</t>
   </si>
   <si>
-    <t>獨立報</t>
+    <t>独立报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E5%A0%B1</t>
   </si>
   <si>
-    <t>泰晤士報</t>
+    <t>泰晤士报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E5%BF%AB%E5%A0%B1</t>
   </si>
   <si>
-    <t>每日快報</t>
+    <t>每日快报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>每日郵報</t>
+    <t>每日邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9C%9F%E6%97%A5%E9%82%AE%E6%8A%A5</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E5%A0%B1_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>太陽報 (英國)</t>
+    <t>太阳报 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%88%A9%E7%89%B9%E8%A1%97</t>
@@ -203,25 +200,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>英國廣播電台列表</t>
+    <t>英国广播电台列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司電台</t>
+    <t>英国广播公司电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E5%BB%A3%E6%92%AD%E4%B8%80%E5%8F%B0</t>
   </si>
   <si>
-    <t>BBC廣播一台</t>
+    <t>BBC广播一台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E5%BB%A3%E6%92%AD%E4%BA%8C%E5%8F%B0</t>
   </si>
   <si>
-    <t>BBC廣播二台</t>
+    <t>BBC广播二台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC_6_Music</t>
@@ -233,43 +230,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%B8%89%E8%BB%8D%E5%BB%A3%E6%92%AD%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>英國三軍廣播服務</t>
+    <t>英国三军广播服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E5%BB%A3%E6%92%AD%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>BBC廣播大樓</t>
+    <t>BBC广播大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>英國電視</t>
+    <t>英国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E7%AC%AC%E4%B8%80%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司第一台</t>
+    <t>英国广播公司第一台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E7%AC%AC%E4%BA%8C%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司第二台</t>
+    <t>英国广播公司第二台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E7%AC%AC%E4%B8%89%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司第三台</t>
+    <t>英国广播公司第三台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E7%AC%AC%E5%9B%9B%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司第四台</t>
+    <t>英国广播公司第四台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%B9%BF%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E9%97%BB%E9%A2%91%E9%81%93</t>
@@ -287,13 +284,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%AC%AC%E5%9B%9B%E9%A0%BB%E9%81%93%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國第四頻道公司</t>
+    <t>英国第四频道公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/E4_(%E9%9B%BB%E8%A6%96%E9%A0%BB%E9%81%93)</t>
   </si>
   <si>
-    <t>E4 (電視頻道)</t>
+    <t>E4 (电视频道)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Film4</t>
@@ -317,25 +314,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%AC%AC%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國第五台</t>
+    <t>英国第五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>獨立電視台</t>
+    <t>独立电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>蘇格蘭電視台</t>
+    <t>苏格兰电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTV%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>UTV電視台</t>
+    <t>UTV电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ITV2</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%A4%A9%E7%A9%BA%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>英國天空廣播</t>
+    <t>英国天空广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A9%BA%E7%AC%AC%E4%B8%80%E5%8F%B0</t>
@@ -371,13 +368,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A9%BA%E9%AB%94%E8%82%B2%E5%8F%B0</t>
   </si>
   <si>
-    <t>天空體育台</t>
+    <t>天空体育台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A9%BA%E9%AB%94%E8%82%B2F1%E5%8F%B0</t>
   </si>
   <si>
-    <t>天空體育F1台</t>
+    <t>天空体育F1台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UKTV</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>有線電視</t>
+    <t>有线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TiVo</t>
@@ -407,37 +404,37 @@
     <t>https://zh.wikipedia.org/wiki/BBC%E9%9B%BB%E8%A6%96%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>BBC電視中心</t>
+    <t>BBC电视中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%AA%92%E9%AB%94%E5%9F%8E</t>
   </si>
   <si>
-    <t>英國媒體城</t>
+    <t>英国媒体城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E4%B8%81%E5%A0%A1%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A6%96%E7%AF%80</t>
   </si>
   <si>
-    <t>愛丁堡國際電視節</t>
+    <t>爱丁堡国际电视节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>英國電信</t>
+    <t>英国电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E4%BA%BA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>經濟學人集團</t>
+    <t>经济学人集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E4%BB%A3%E9%9F%B3%E6%A8%82%E5%87%BA%E7%89%88</t>
   </si>
   <si>
-    <t>百代音樂出版</t>
+    <t>百代音乐出版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Informa</t>
@@ -449,25 +446,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E9%9B%BB%E8%A6%96%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>獨立電視新聞</t>
+    <t>独立电视新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E9%9B%BB%E8%A6%96%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>獨立電視公司</t>
+    <t>独立电视公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B9%E7%94%9F%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>培生集團</t>
+    <t>培生集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%BE%B7%C2%B7%E6%84%9B%E6%80%9D%E5%94%AF%E7%88%BE</t>
   </si>
   <si>
-    <t>里德·愛思唯爾</t>
+    <t>里德·爱思唯尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E9%80%8F%E7%A4%BE</t>
@@ -479,25 +476,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E5%BD%B1%E5%88%86%E7%B4%9A%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>英國電影分級委員會</t>
+    <t>英国电影分级委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E5%BD%B1%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>英國電影協會</t>
+    <t>英国电影协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>通訊管理局</t>
+    <t>通讯管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E5%BD%B1%E5%92%8C%E9%9B%BB%E8%A6%96%E8%97%9D%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>英國電影和電視藝術學院</t>
+    <t>英国电影和电视艺术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%94%B1%E7%89%87%E4%B8%9A%E5%8D%8F%E4%BC%9A</t>
@@ -515,19 +512,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%8D%A8%E7%AB%8B%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>英國獨立廣播</t>
+    <t>英国独立广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%AA%92%E9%AB%94%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立媒體博物館</t>
+    <t>国立媒体博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E7%B4%99</t>
-  </si>
-  <si>
-    <t>報紙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7</t>
@@ -1316,7 +1310,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
         <v>19</v>
@@ -1342,10 +1336,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1371,10 +1365,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1400,10 +1394,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1458,10 +1452,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1487,10 +1481,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>24</v>
@@ -1516,10 +1510,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1545,10 +1539,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1574,10 +1568,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1603,10 +1597,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1632,10 +1626,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1661,10 +1655,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1690,10 +1684,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1719,10 +1713,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1751,7 +1745,7 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1780,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1809,7 +1803,7 @@
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1838,7 +1832,7 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1867,7 +1861,7 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1896,7 +1890,7 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1922,10 +1916,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
         <v>57</v>
-      </c>
-      <c r="F36" t="s">
-        <v>58</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1954,7 +1948,7 @@
         <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1980,10 +1974,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
         <v>59</v>
-      </c>
-      <c r="F38" t="s">
-        <v>60</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2009,10 +2003,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
         <v>61</v>
-      </c>
-      <c r="F39" t="s">
-        <v>62</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2038,10 +2032,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" t="s">
         <v>63</v>
-      </c>
-      <c r="F40" t="s">
-        <v>64</v>
       </c>
       <c r="G40" t="n">
         <v>12</v>
@@ -2067,10 +2061,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
         <v>65</v>
-      </c>
-      <c r="F41" t="s">
-        <v>66</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -2096,10 +2090,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
         <v>67</v>
-      </c>
-      <c r="F42" t="s">
-        <v>68</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2125,10 +2119,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" t="s">
         <v>69</v>
-      </c>
-      <c r="F43" t="s">
-        <v>70</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2154,10 +2148,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
         <v>71</v>
-      </c>
-      <c r="F44" t="s">
-        <v>72</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2183,10 +2177,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
         <v>61</v>
-      </c>
-      <c r="F45" t="s">
-        <v>62</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2212,10 +2206,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" t="s">
         <v>61</v>
-      </c>
-      <c r="F46" t="s">
-        <v>62</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2241,10 +2235,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" t="s">
         <v>61</v>
-      </c>
-      <c r="F47" t="s">
-        <v>62</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2270,10 +2264,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" t="s">
         <v>61</v>
-      </c>
-      <c r="F48" t="s">
-        <v>62</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2299,10 +2293,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" t="s">
         <v>61</v>
-      </c>
-      <c r="F49" t="s">
-        <v>62</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2328,10 +2322,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" t="s">
         <v>61</v>
-      </c>
-      <c r="F50" t="s">
-        <v>62</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2357,10 +2351,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" t="s">
         <v>61</v>
-      </c>
-      <c r="F51" t="s">
-        <v>62</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2386,10 +2380,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" t="s">
         <v>61</v>
-      </c>
-      <c r="F52" t="s">
-        <v>62</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2415,10 +2409,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" t="s">
         <v>61</v>
-      </c>
-      <c r="F53" t="s">
-        <v>62</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2444,10 +2438,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s">
         <v>73</v>
-      </c>
-      <c r="F54" t="s">
-        <v>74</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -2473,10 +2467,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" t="s">
         <v>75</v>
-      </c>
-      <c r="F55" t="s">
-        <v>76</v>
       </c>
       <c r="G55" t="n">
         <v>41</v>
@@ -2502,10 +2496,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" t="s">
         <v>77</v>
-      </c>
-      <c r="F56" t="s">
-        <v>78</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2531,10 +2525,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s">
         <v>79</v>
-      </c>
-      <c r="F57" t="s">
-        <v>80</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2560,10 +2554,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" t="s">
         <v>81</v>
-      </c>
-      <c r="F58" t="s">
-        <v>82</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2589,10 +2583,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" t="s">
         <v>83</v>
-      </c>
-      <c r="F59" t="s">
-        <v>84</v>
       </c>
       <c r="G59" t="n">
         <v>7</v>
@@ -2618,10 +2612,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" t="s">
         <v>85</v>
-      </c>
-      <c r="F60" t="s">
-        <v>86</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2647,10 +2641,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" t="s">
         <v>87</v>
-      </c>
-      <c r="F61" t="s">
-        <v>88</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2676,10 +2670,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" t="s">
         <v>89</v>
-      </c>
-      <c r="F62" t="s">
-        <v>90</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -2705,10 +2699,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" t="s">
         <v>91</v>
-      </c>
-      <c r="F63" t="s">
-        <v>92</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2734,10 +2728,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" t="s">
         <v>93</v>
-      </c>
-      <c r="F64" t="s">
-        <v>94</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -2763,10 +2757,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65" t="s">
         <v>95</v>
-      </c>
-      <c r="F65" t="s">
-        <v>96</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2792,10 +2786,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" t="s">
         <v>97</v>
-      </c>
-      <c r="F66" t="s">
-        <v>98</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2821,10 +2815,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" t="s">
         <v>99</v>
-      </c>
-      <c r="F67" t="s">
-        <v>100</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -2850,10 +2844,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>100</v>
+      </c>
+      <c r="F68" t="s">
         <v>101</v>
-      </c>
-      <c r="F68" t="s">
-        <v>102</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -2879,10 +2873,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" t="s">
         <v>103</v>
-      </c>
-      <c r="F69" t="s">
-        <v>104</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -2908,10 +2902,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" t="s">
         <v>105</v>
-      </c>
-      <c r="F70" t="s">
-        <v>106</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -2937,10 +2931,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71" t="s">
         <v>107</v>
-      </c>
-      <c r="F71" t="s">
-        <v>108</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2966,10 +2960,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" t="s">
         <v>109</v>
-      </c>
-      <c r="F72" t="s">
-        <v>110</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2995,10 +2989,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" t="s">
         <v>103</v>
-      </c>
-      <c r="F73" t="s">
-        <v>104</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3024,10 +3018,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>104</v>
+      </c>
+      <c r="F74" t="s">
         <v>105</v>
-      </c>
-      <c r="F74" t="s">
-        <v>106</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3053,10 +3047,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>110</v>
+      </c>
+      <c r="F75" t="s">
         <v>111</v>
-      </c>
-      <c r="F75" t="s">
-        <v>112</v>
       </c>
       <c r="G75" t="n">
         <v>7</v>
@@ -3082,10 +3076,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" t="s">
         <v>113</v>
-      </c>
-      <c r="F76" t="s">
-        <v>114</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3111,10 +3105,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" t="s">
         <v>115</v>
-      </c>
-      <c r="F77" t="s">
-        <v>116</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3140,10 +3134,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78" t="s">
         <v>117</v>
-      </c>
-      <c r="F78" t="s">
-        <v>118</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3169,10 +3163,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>118</v>
+      </c>
+      <c r="F79" t="s">
         <v>119</v>
-      </c>
-      <c r="F79" t="s">
-        <v>120</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3198,10 +3192,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80" t="s">
         <v>121</v>
-      </c>
-      <c r="F80" t="s">
-        <v>122</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3227,10 +3221,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" t="s">
         <v>123</v>
-      </c>
-      <c r="F81" t="s">
-        <v>124</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3256,10 +3250,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" t="s">
         <v>125</v>
-      </c>
-      <c r="F82" t="s">
-        <v>126</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3285,10 +3279,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" t="s">
         <v>75</v>
-      </c>
-      <c r="F83" t="s">
-        <v>76</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -3314,10 +3308,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" t="s">
         <v>127</v>
-      </c>
-      <c r="F84" t="s">
-        <v>128</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3343,10 +3337,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>128</v>
+      </c>
+      <c r="F85" t="s">
         <v>129</v>
-      </c>
-      <c r="F85" t="s">
-        <v>130</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3372,10 +3366,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>72</v>
+      </c>
+      <c r="F86" t="s">
         <v>73</v>
-      </c>
-      <c r="F86" t="s">
-        <v>74</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3401,10 +3395,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>130</v>
+      </c>
+      <c r="F87" t="s">
         <v>131</v>
-      </c>
-      <c r="F87" t="s">
-        <v>132</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3430,10 +3424,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>132</v>
+      </c>
+      <c r="F88" t="s">
         <v>133</v>
-      </c>
-      <c r="F88" t="s">
-        <v>134</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3459,10 +3453,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" t="s">
         <v>75</v>
-      </c>
-      <c r="F89" t="s">
-        <v>76</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3488,10 +3482,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>74</v>
+      </c>
+      <c r="F90" t="s">
         <v>75</v>
-      </c>
-      <c r="F90" t="s">
-        <v>76</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3517,10 +3511,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>134</v>
+      </c>
+      <c r="F91" t="s">
         <v>135</v>
-      </c>
-      <c r="F91" t="s">
-        <v>136</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3546,10 +3540,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>136</v>
+      </c>
+      <c r="F92" t="s">
         <v>137</v>
-      </c>
-      <c r="F92" t="s">
-        <v>138</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3575,10 +3569,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>138</v>
+      </c>
+      <c r="F93" t="s">
         <v>139</v>
-      </c>
-      <c r="F93" t="s">
-        <v>140</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3604,10 +3598,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>140</v>
+      </c>
+      <c r="F94" t="s">
         <v>141</v>
-      </c>
-      <c r="F94" t="s">
-        <v>142</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3633,10 +3627,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>142</v>
+      </c>
+      <c r="F95" t="s">
         <v>143</v>
-      </c>
-      <c r="F95" t="s">
-        <v>144</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3662,10 +3656,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>144</v>
+      </c>
+      <c r="F96" t="s">
         <v>145</v>
-      </c>
-      <c r="F96" t="s">
-        <v>146</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3691,10 +3685,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" t="s">
         <v>147</v>
-      </c>
-      <c r="F97" t="s">
-        <v>148</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3720,10 +3714,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>148</v>
+      </c>
+      <c r="F98" t="s">
         <v>149</v>
-      </c>
-      <c r="F98" t="s">
-        <v>150</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3749,10 +3743,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>150</v>
+      </c>
+      <c r="F99" t="s">
         <v>151</v>
-      </c>
-      <c r="F99" t="s">
-        <v>152</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3778,10 +3772,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>152</v>
+      </c>
+      <c r="F100" t="s">
         <v>153</v>
-      </c>
-      <c r="F100" t="s">
-        <v>154</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3807,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>154</v>
+      </c>
+      <c r="F101" t="s">
         <v>155</v>
-      </c>
-      <c r="F101" t="s">
-        <v>156</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -3836,10 +3830,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>156</v>
+      </c>
+      <c r="F102" t="s">
         <v>157</v>
-      </c>
-      <c r="F102" t="s">
-        <v>158</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3865,10 +3859,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>158</v>
+      </c>
+      <c r="F103" t="s">
         <v>159</v>
-      </c>
-      <c r="F103" t="s">
-        <v>160</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3894,10 +3888,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>160</v>
+      </c>
+      <c r="F104" t="s">
         <v>161</v>
-      </c>
-      <c r="F104" t="s">
-        <v>162</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3923,10 +3917,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>162</v>
+      </c>
+      <c r="F105" t="s">
         <v>163</v>
-      </c>
-      <c r="F105" t="s">
-        <v>164</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -3952,10 +3946,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>164</v>
+      </c>
+      <c r="F106" t="s">
         <v>165</v>
-      </c>
-      <c r="F106" t="s">
-        <v>166</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3981,10 +3975,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>166</v>
+      </c>
+      <c r="F107" t="s">
         <v>167</v>
-      </c>
-      <c r="F107" t="s">
-        <v>168</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4010,10 +4004,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F108" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="G108" t="n">
         <v>15</v>
@@ -4039,10 +4033,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F109" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4068,10 +4062,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F110" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
